--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_34.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_34.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,688 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(7.9, 17.86)]</t>
+          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42)]</t>
+          <t>[('0:01:37.940000', '0:01:48.300000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>[('0:01:26.660000', '0:01:36.120000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min', 'C:min', 'G:7', 'C:min', 'C:min', 'C:min/G', 'G:7', 'C:(3,5,b7,b9)/E', 'F:min', 'C:maj/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'D#:maj/A#', 'A#:7', 'D#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:7', 'D#:maj', 'C:min/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min']]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(0.82, 145.84)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(0.36, 147.72)]</t>
+          <t>[('0:01:24.920000', '0:01:45.440000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:21.620000', '0:01:43.560000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A#:min/C#', 'F:min/C', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_187</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_66</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(43.38, 45.8)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(16.72, 26.46)]</t>
+          <t>[('0:00:16.380000', '0:01:35.260000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:14.760000', '0:01:42.460000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2657342657342657</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(39.58, 48.9)]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(24.64, 36.02)]</t>
+          <t>[('0:00:20.560000', '0:00:26.400000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:12.520000', '0:01:30.980000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
-        </is>
+          <t>isophonics_157</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_159</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3645833333333334</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['B', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(30.24, 38.5), (84.62, 91.74)]</t>
+          <t>[['E/4', 'D/5', 'A', 'D', 'A/3']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(87.2, 97.22), (41.38, 43.34)]</t>
+          <t>[('0:01:05.131995', '0:01:20.236575')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:09.172000', '0:00:17.058000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(76.56, 94.12)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(16.84, 21.54)]</t>
+          <t>[('0:00:27', '0:00:49.860000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:00.380000', '0:00:08.900000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1402173913043478</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_64</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4107142857142857</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'A']]</t>
+          <t>[['A', 'D', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(19.36, 21.74)]</t>
+          <t>[['A', 'D', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
+          <t>[('0:00:40.490000', '0:00:50.260000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
-        </is>
-      </c>
+          <t>[('0:01:14.879000', '0:01:27.795000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1517241379310345</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F/5', 'Eb/5', 'Bb'], ['Eb', 'Eb', 'F'], ['Eb', 'F', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B', 'A', 'E'], ['A', 'A', 'B'], ['A', 'B', 'E']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(7.324217, 10.040952), (42.305079, 47.564399), (44.917324, 48.272607)]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(2.537346, 8.504874), (42.371179, 48.199387), (44.310045, 50.196303)]</t>
+          <t>[('0:00:57.500000', '0:00:59.680000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
-        </is>
-      </c>
+          <t>[('0:00:07.580000', '0:00:20.100000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_160</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4583333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(42.88, 45.1)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(2.98, 6.7)]</t>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(47.3, 50.04)]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(13.72, 22.2)]</t>
+          <t>[('0:00:42.940000', '0:00:51.080000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:03.820000', '0:00:06.460000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1230769230769231</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(3.78, 7.38)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42)]</t>
+          <t>[('0:00:47.580000', '0:00:50.040000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:39.840000', '0:00:47.280000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1064102564102564</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(9.26, 13.9)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[('0:00:16.020000', '0:00:22.500000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:00.465952', '0:00:05.272756')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min', 'A#:maj/D', 'D#:maj', 'F:7', 'A#:maj', 'G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(49.06, 59.7)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(24.76, 34.92)]</t>
+          <t>[('0:00:14.520000', '0:00:59.040000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>[('0:00:13.420000', '0:00:53.020000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1536643026004728</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A', 'A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G', 'G', 'C', 'G']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(3.101913, 7.754783)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(10.090897, 18.241101)]</t>
+          <t>[('0:01:01.540000', '0:01:07.900000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
+          <t>[('0:00:57.520000', '0:01:03.420000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_42</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['G:(3,5,b7,b9)', 'C:min', 'E:dim7'], ['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj'], ['F#:dim7', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(7.7, 12.06)]</t>
+          <t>[('0:00:11.760000', '0:00:15.640000'), ('0:00:20.540000', '0:00:23.160000'), ('0:00:16.240000', '0:00:17.660000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(41.32, 48.94)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(4.86, 7.56)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:13.800000', '0:00:18.440000'), ('0:00:24.260000', '0:00:27.200000'), ('0:00:19.120000', '0:00:20.760000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
